--- a/jobhuntingsystem/doc/02_画面設計書.xlsx
+++ b/jobhuntingsystem/doc/02_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\jobHuntingLocal\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\jobhuntingsystem\jobhuntingsystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF0F484D-CBF9-4C3F-98F6-30CAB71B40D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BF581-766D-4B69-BE7A-7B6BA71131C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="408" windowWidth="24960" windowHeight="13440" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="408" windowWidth="24960" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -32,18 +32,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'画面遷移図（企業)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>西野　直幸</author>
     <author>姫野　マリ</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="1" shapeId="0">
+    <comment ref="J9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="167">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -664,9 +664,6 @@
   </si>
   <si>
     <t>G0009</t>
-  </si>
-  <si>
-    <t>G0010</t>
   </si>
   <si>
     <t>G0011</t>
@@ -1253,14 +1250,65 @@
     <t>学生情報詳細（マイページ）</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>G0021</t>
+  </si>
+  <si>
+    <t>G0022</t>
+  </si>
+  <si>
+    <t>G0023</t>
+  </si>
+  <si>
+    <t>G0024</t>
+  </si>
+  <si>
+    <t>G0025</t>
+  </si>
+  <si>
+    <t>G0026</t>
+  </si>
+  <si>
+    <t>お知らせ登録画面</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブで全体、個人、グループを分ける</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="211" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1396,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,12 +1472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,7 +1664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -1650,13 +1692,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,6 +1998,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,96 +2127,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,15 +2155,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,6 +2162,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2143,28 +2185,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2181,15 +2223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2209,14 +2242,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2229,20 +2254,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="2"/>
-    <cellStyle name="標準_Sheet1" xfId="3"/>
-    <cellStyle name="標準_システム管理" xfId="4"/>
-    <cellStyle name="標準_種別マスタ" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_システム管理" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -32303,7 +32339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -32526,14 +32562,14 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="162" t="s">
+      <c r="Y2" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="158"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="135"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
@@ -32653,16 +32689,16 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
@@ -32686,26 +32722,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="164" t="s">
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="146"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -32713,40 +32749,40 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="162" t="s">
+      <c r="Y7" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="162" t="s">
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="162" t="s">
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AD7" s="163"/>
+      <c r="AD7" s="140"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="70"/>
       <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="169"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -32754,12 +32790,12 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="134"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="164"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="70"/>
       <c r="AG8" s="6"/>
@@ -32789,12 +32825,12 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="136"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="166"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="70"/>
       <c r="AG9" s="6"/>
@@ -32824,12 +32860,12 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="138"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="168"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="70"/>
       <c r="AG10" s="13"/>
@@ -32870,105 +32906,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
       <c r="AE12" s="16"/>
       <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="6"/>
     </row>
@@ -33180,247 +33216,247 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="146" t="s">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="146" t="s">
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="146" t="s">
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="142"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="142"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="148"/>
+      <c r="AC21" s="142"/>
+      <c r="AD21" s="143"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="6"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="150"/>
-      <c r="X22" s="150"/>
-      <c r="Y22" s="150"/>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="146"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="148"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="159"/>
+      <c r="AB22" s="141"/>
+      <c r="AC22" s="142"/>
+      <c r="AD22" s="143"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="6"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="150"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="148"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="159"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="142"/>
+      <c r="AD23" s="143"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="6"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="150"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
-      <c r="X24" s="150"/>
-      <c r="Y24" s="150"/>
-      <c r="Z24" s="150"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="146"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="148"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="159"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="142"/>
+      <c r="AD24" s="143"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="6"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
-      <c r="X25" s="150"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="150"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="148"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="159"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="142"/>
+      <c r="AD25" s="143"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="6"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="150"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150"/>
-      <c r="U26" s="150"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="150"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="148"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="159"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="142"/>
+      <c r="AD26" s="143"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="6"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="148"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="159"/>
+      <c r="AB27" s="141"/>
+      <c r="AC27" s="142"/>
+      <c r="AD27" s="143"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="6"/>
     </row>
@@ -33528,6 +33564,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K27:AA27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="AC7:AD7"/>
@@ -33539,35 +33599,11 @@
     <mergeCell ref="AA8:AB10"/>
     <mergeCell ref="Y8:Z10"/>
     <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB21:AD21"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K27:AA27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="K21:AA21"/>
     <mergeCell ref="AC8:AD10"/>
     <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -33578,14 +33614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -33689,7 +33725,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="183"/>
       <c r="E6" s="183"/>
@@ -33718,7 +33754,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="176" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="177"/>
       <c r="F8" s="177"/>
@@ -33738,16 +33774,16 @@
         <v>41</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="132" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="F9" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>142</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>37</v>
@@ -33767,19 +33803,19 @@
         <v>65</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="104"/>
       <c r="I10" s="106"/>
@@ -33790,22 +33826,22 @@
         <v>66</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="104"/>
       <c r="I11" s="106"/>
@@ -33813,25 +33849,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="35"/>
@@ -33842,22 +33878,22 @@
         <v>68</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="126"/>
@@ -33874,16 +33910,16 @@
         <v>67</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="106"/>
@@ -33894,17 +33930,17 @@
         <v>71</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="112"/>
       <c r="F15" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="106"/>
       <c r="H15" s="113"/>
@@ -33916,17 +33952,17 @@
         <v>72</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="112"/>
       <c r="F16" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="113"/>
@@ -33938,25 +33974,25 @@
         <v>71</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="113" t="s">
         <v>151</v>
-      </c>
-      <c r="E17" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="113" t="s">
-        <v>152</v>
       </c>
       <c r="I17" s="106"/>
       <c r="J17" s="107"/>
@@ -33966,17 +34002,17 @@
         <v>71</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="112"/>
       <c r="F18" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="106"/>
       <c r="H18" s="113"/>
@@ -33987,18 +34023,18 @@
       <c r="A19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="104" t="s">
-        <v>149</v>
+      <c r="B19" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="113"/>
@@ -34007,25 +34043,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="128"/>
@@ -34036,46 +34072,46 @@
         <v>73</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="126"/>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="226" t="s">
-        <v>131</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="129"/>
@@ -34085,14 +34121,14 @@
       <c r="A23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="227" t="s">
-        <v>154</v>
+      <c r="B23" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="105"/>
       <c r="F23" s="35"/>
@@ -34106,17 +34142,17 @@
         <v>73</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="105"/>
       <c r="F24" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
@@ -34128,13 +34164,13 @@
         <v>73</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="105"/>
       <c r="F25" s="35"/>
@@ -34148,20 +34184,20 @@
         <v>74</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="105"/>
       <c r="G26" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="128"/>
@@ -34169,19 +34205,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="227" t="s">
-        <v>118</v>
+        <v>75</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -34191,23 +34227,23 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="226" t="s">
-        <v>158</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="105"/>
       <c r="G28" s="105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="127"/>
@@ -34215,23 +34251,23 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" s="105"/>
       <c r="G29" s="105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="128"/>
@@ -34239,17 +34275,17 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -34258,20 +34294,20 @@
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="28" t="s">
-        <v>75</v>
+      <c r="A31" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -34280,16 +34316,18 @@
       <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="28"/>
+      <c r="A32" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="B32" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" s="76"/>
       <c r="G32" s="76"/>
@@ -34299,51 +34337,51 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" s="126"/>
       <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="227" t="s">
-        <v>128</v>
+        <v>82</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="105"/>
       <c r="G34" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="127"/>
@@ -34351,19 +34389,19 @@
     </row>
     <row r="35" spans="1:10" ht="20.399999999999999">
       <c r="A35" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="226" t="s" ph="1">
-        <v>129</v>
+        <v>83</v>
+      </c>
+      <c r="B35" s="26" t="s" ph="1">
+        <v>128</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -34373,10 +34411,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="226" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>67</v>
@@ -34385,82 +34423,90 @@
       <c r="E36" s="30"/>
       <c r="F36" s="105"/>
       <c r="G36" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="38"/>
       <c r="I36" s="127"/>
       <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="28"/>
+      <c r="A37" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="B37" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="105"/>
       <c r="G37" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="127"/>
       <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="28"/>
+      <c r="A38" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="B38" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38" s="105"/>
       <c r="G38" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38" s="38"/>
       <c r="I38" s="127"/>
       <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="28"/>
-      <c r="B39" s="226" t="s">
-        <v>135</v>
+      <c r="A39" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="105"/>
       <c r="G39" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="38"/>
       <c r="I39" s="127"/>
       <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="28"/>
+      <c r="A40" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="B40" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>67</v>
@@ -34469,16 +34515,18 @@
       <c r="E40" s="30"/>
       <c r="F40" s="105"/>
       <c r="G40" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="127"/>
       <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="28"/>
+      <c r="A41" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="B41" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>67</v>
@@ -34487,29 +34535,31 @@
       <c r="E41" s="30"/>
       <c r="F41" s="105"/>
       <c r="G41" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="127"/>
       <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="28"/>
+      <c r="A42" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="B42" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="105"/>
       <c r="G42" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="38"/>
       <c r="I42" s="127"/>
@@ -34517,13 +34567,23 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="30"/>
+      <c r="B43" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="105" t="s">
+        <v>142</v>
+      </c>
       <c r="F43" s="76"/>
       <c r="G43" s="76"/>
-      <c r="H43" s="38"/>
+      <c r="H43" s="38" t="s">
+        <v>166</v>
+      </c>
       <c r="I43" s="127"/>
       <c r="J43" s="31"/>
     </row>
@@ -34739,10 +34799,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AK59" sqref="AK59"/>
     </sheetView>
   </sheetViews>
@@ -34794,11 +34854,11 @@
       <c r="AG1" s="61"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="24" t="s">
         <v>29</v>
       </c>
@@ -34835,9 +34895,9 @@
       <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
@@ -34868,10 +34928,10 @@
       </c>
       <c r="AB3" s="195"/>
       <c r="AC3" s="195"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="188"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="192"/>
@@ -34913,11 +34973,11 @@
       <c r="AG4" s="53"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="40" t="s">
         <v>43</v>
       </c>
@@ -34987,10 +35047,10 @@
       </c>
       <c r="AB6" s="195"/>
       <c r="AC6" s="195"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="187"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="188"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="198"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -36804,10 +36864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
@@ -36859,11 +36919,11 @@
       <c r="AG1" s="61"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="24" t="s">
         <v>29</v>
       </c>
@@ -36900,9 +36960,9 @@
       <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
@@ -36933,10 +36993,10 @@
       </c>
       <c r="AB3" s="195"/>
       <c r="AC3" s="195"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="188"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="192"/>
@@ -36978,11 +37038,11 @@
       <c r="AG4" s="53"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="40" t="s">
         <v>43</v>
       </c>
@@ -37052,10 +37112,10 @@
       </c>
       <c r="AB6" s="195"/>
       <c r="AC6" s="195"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="187"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="188"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="198"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -38869,7 +38929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -38924,11 +38984,11 @@
       <c r="AG1" s="61"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="24" t="s">
         <v>29</v>
       </c>
@@ -38965,9 +39025,9 @@
       <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
@@ -38998,10 +39058,10 @@
       </c>
       <c r="AB3" s="195"/>
       <c r="AC3" s="195"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="188"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="192"/>
@@ -39043,11 +39103,11 @@
       <c r="AG4" s="53"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="40" t="s">
         <v>43</v>
       </c>
@@ -39117,10 +39177,10 @@
       </c>
       <c r="AB6" s="195"/>
       <c r="AC6" s="195"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="187"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="188"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="198"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -40934,7 +40994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -40961,34 +41021,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="221"/>
     </row>
     <row r="2" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="210"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
@@ -41005,18 +41065,18 @@
       <c r="N2" s="80"/>
       <c r="O2" s="80"/>
       <c r="P2" s="80"/>
-      <c r="Q2" s="218" t="s">
+      <c r="Q2" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="219"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="51"/>
       <c r="T2" s="54"/>
       <c r="U2" s="109"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="215"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
       <c r="C3" s="24" t="s">
         <v>15</v>
       </c>
@@ -41033,18 +41093,18 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="Q3" s="218" t="s">
+      <c r="Q3" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="219"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="188"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="198"/>
       <c r="U3" s="120"/>
       <c r="V3" s="118"/>
     </row>
     <row r="4" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="216"/>
-      <c r="B4" s="217"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
@@ -41061,20 +41121,20 @@
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
       <c r="P4" s="80"/>
-      <c r="Q4" s="218" t="s">
+      <c r="Q4" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="219"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="221"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="223"/>
       <c r="U4" s="109"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="24" t="s">
         <v>57</v>
       </c>
@@ -41091,35 +41151,35 @@
       <c r="N5" s="80"/>
       <c r="O5" s="80"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="218" t="s">
+      <c r="Q5" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="219"/>
+      <c r="R5" s="200"/>
       <c r="S5" s="51"/>
       <c r="T5" s="117"/>
       <c r="U5" s="121"/>
       <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="214"/>
-      <c r="B6" s="215"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224" t="s">
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="224"/>
+      <c r="G6" s="217"/>
       <c r="H6" s="80"/>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
-      <c r="L6" s="225" t="s">
+      <c r="L6" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="225"/>
+      <c r="M6" s="218"/>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
       <c r="P6" s="80"/>
@@ -41127,14 +41187,14 @@
         <v>23</v>
       </c>
       <c r="R6" s="116"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="188"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="198"/>
       <c r="U6" s="120"/>
       <c r="V6" s="118"/>
     </row>
     <row r="7" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="216"/>
-      <c r="B7" s="217"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
@@ -41151,8 +41211,8 @@
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="219"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="200"/>
       <c r="S7" s="80"/>
       <c r="T7" s="81"/>
     </row>
@@ -42037,14 +42097,14 @@
       <c r="J46" s="76"/>
       <c r="K46" s="77"/>
       <c r="L46" s="201"/>
-      <c r="M46" s="203"/>
+      <c r="M46" s="202"/>
       <c r="N46" s="77"/>
       <c r="O46" s="64"/>
       <c r="P46" s="201"/>
-      <c r="Q46" s="202"/>
-      <c r="R46" s="202"/>
-      <c r="S46" s="202"/>
-      <c r="T46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="202"/>
     </row>
     <row r="47" spans="1:20" s="41" customFormat="1" ht="32.549999999999997" customHeight="1">
       <c r="A47" s="122">
@@ -42204,15 +42264,15 @@
       <c r="I53" s="77"/>
       <c r="J53" s="77"/>
       <c r="K53" s="77"/>
-      <c r="L53" s="199"/>
-      <c r="M53" s="200"/>
+      <c r="L53" s="224"/>
+      <c r="M53" s="225"/>
       <c r="N53" s="77"/>
       <c r="O53" s="64"/>
       <c r="P53" s="201"/>
-      <c r="Q53" s="202"/>
-      <c r="R53" s="202"/>
-      <c r="S53" s="202"/>
-      <c r="T53" s="203"/>
+      <c r="Q53" s="203"/>
+      <c r="R53" s="203"/>
+      <c r="S53" s="203"/>
+      <c r="T53" s="202"/>
     </row>
     <row r="54" spans="1:20" s="41" customFormat="1" ht="32.549999999999997" customHeight="1">
       <c r="A54" s="76">
@@ -42228,15 +42288,15 @@
       <c r="I54" s="77"/>
       <c r="J54" s="77"/>
       <c r="K54" s="77"/>
-      <c r="L54" s="199"/>
-      <c r="M54" s="200"/>
+      <c r="L54" s="224"/>
+      <c r="M54" s="225"/>
       <c r="N54" s="77"/>
       <c r="O54" s="64"/>
       <c r="P54" s="201"/>
-      <c r="Q54" s="202"/>
-      <c r="R54" s="202"/>
-      <c r="S54" s="202"/>
-      <c r="T54" s="203"/>
+      <c r="Q54" s="203"/>
+      <c r="R54" s="203"/>
+      <c r="S54" s="203"/>
+      <c r="T54" s="202"/>
     </row>
     <row r="55" spans="1:20" s="41" customFormat="1" ht="32.549999999999997" customHeight="1">
       <c r="A55" s="76">
@@ -42252,15 +42312,15 @@
       <c r="I55" s="77"/>
       <c r="J55" s="77"/>
       <c r="K55" s="77"/>
-      <c r="L55" s="199"/>
-      <c r="M55" s="200"/>
+      <c r="L55" s="224"/>
+      <c r="M55" s="225"/>
       <c r="N55" s="77"/>
       <c r="O55" s="64"/>
       <c r="P55" s="201"/>
-      <c r="Q55" s="202"/>
-      <c r="R55" s="202"/>
-      <c r="S55" s="202"/>
-      <c r="T55" s="203"/>
+      <c r="Q55" s="203"/>
+      <c r="R55" s="203"/>
+      <c r="S55" s="203"/>
+      <c r="T55" s="202"/>
     </row>
     <row r="56" spans="1:20" s="41" customFormat="1" ht="32.549999999999997" customHeight="1">
       <c r="A56" s="76">
@@ -42276,30 +42336,36 @@
       <c r="I56" s="77"/>
       <c r="J56" s="77"/>
       <c r="K56" s="77"/>
-      <c r="L56" s="199"/>
-      <c r="M56" s="200"/>
+      <c r="L56" s="224"/>
+      <c r="M56" s="225"/>
       <c r="N56" s="77"/>
       <c r="O56" s="64"/>
       <c r="P56" s="201"/>
-      <c r="Q56" s="202"/>
-      <c r="R56" s="202"/>
-      <c r="S56" s="202"/>
-      <c r="T56" s="203"/>
+      <c r="Q56" s="203"/>
+      <c r="R56" s="203"/>
+      <c r="S56" s="203"/>
+      <c r="T56" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P50:T50"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -42310,24 +42376,18 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="P47:T47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -42337,7 +42397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -42361,34 +42421,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="221"/>
     </row>
     <row r="2" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="210"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
@@ -42405,18 +42465,18 @@
       <c r="N2" s="80"/>
       <c r="O2" s="80"/>
       <c r="P2" s="80"/>
-      <c r="Q2" s="218" t="s">
+      <c r="Q2" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="219"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="51"/>
       <c r="T2" s="54"/>
       <c r="U2" s="109"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="215"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
       <c r="C3" s="24" t="s">
         <v>15</v>
       </c>
@@ -42433,18 +42493,18 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="Q3" s="218" t="s">
+      <c r="Q3" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="219"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="188"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="198"/>
       <c r="U3" s="120"/>
       <c r="V3" s="118"/>
     </row>
     <row r="4" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="216"/>
-      <c r="B4" s="217"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
@@ -42461,20 +42521,20 @@
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
       <c r="P4" s="80"/>
-      <c r="Q4" s="218" t="s">
+      <c r="Q4" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="219"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="221"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="223"/>
       <c r="U4" s="109"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="24" t="s">
         <v>57</v>
       </c>
@@ -42491,35 +42551,35 @@
       <c r="N5" s="80"/>
       <c r="O5" s="80"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="218" t="s">
+      <c r="Q5" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="219"/>
+      <c r="R5" s="200"/>
       <c r="S5" s="51"/>
       <c r="T5" s="117"/>
       <c r="U5" s="121"/>
       <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="214"/>
-      <c r="B6" s="215"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224" t="s">
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="224"/>
+      <c r="G6" s="217"/>
       <c r="H6" s="80"/>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
-      <c r="L6" s="225" t="s">
+      <c r="L6" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="225"/>
+      <c r="M6" s="218"/>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
       <c r="P6" s="80"/>
@@ -42527,14 +42587,14 @@
         <v>23</v>
       </c>
       <c r="R6" s="131"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="188"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="198"/>
       <c r="U6" s="120"/>
       <c r="V6" s="118"/>
     </row>
     <row r="7" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="216"/>
-      <c r="B7" s="217"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
@@ -42551,8 +42611,8 @@
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="219"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="200"/>
       <c r="S7" s="80"/>
       <c r="T7" s="81"/>
     </row>
@@ -42607,7 +42667,7 @@
     <row r="10" spans="1:22" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="85"/>
       <c r="B10" s="86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="86"/>
       <c r="D10" s="86"/>
@@ -43120,88 +43180,88 @@
       <c r="A32" s="76">
         <v>1</v>
       </c>
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="215" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="216"/>
+      <c r="D32" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="223"/>
-      <c r="D32" s="78" t="s">
+      <c r="E32" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="222" t="s">
+      <c r="F32" s="216"/>
+      <c r="G32" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="223"/>
-      <c r="G32" s="76" t="s">
+      <c r="H32" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="76" t="s">
-        <v>92</v>
-      </c>
       <c r="K32" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M32" s="205"/>
       <c r="N32" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O32" s="205"/>
       <c r="P32" s="201" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="202"/>
-      <c r="R32" s="202"/>
-      <c r="S32" s="202"/>
-      <c r="T32" s="203"/>
+        <v>93</v>
+      </c>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="203"/>
+      <c r="S32" s="203"/>
+      <c r="T32" s="202"/>
     </row>
     <row r="33" spans="1:20" s="41" customFormat="1" ht="82.5" customHeight="1">
       <c r="A33" s="122">
         <v>2</v>
       </c>
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="215" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="216"/>
+      <c r="D33" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="223"/>
-      <c r="D33" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="222" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="223"/>
+      <c r="F33" s="216"/>
       <c r="G33" s="122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" s="205"/>
       <c r="N33" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O33" s="205"/>
       <c r="P33" s="206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="207"/>
       <c r="R33" s="207"/>
@@ -43212,42 +43272,42 @@
       <c r="A34" s="76">
         <v>3</v>
       </c>
-      <c r="B34" s="222" t="s">
+      <c r="B34" s="215" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="216"/>
+      <c r="D34" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="223"/>
-      <c r="D34" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="222" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="223"/>
+      <c r="F34" s="216"/>
       <c r="G34" s="122">
         <v>12</v>
       </c>
       <c r="H34" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I34" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L34" s="204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M34" s="205"/>
       <c r="N34" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O34" s="205"/>
       <c r="P34" s="206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="207"/>
       <c r="R34" s="207"/>
@@ -43258,42 +43318,42 @@
       <c r="A35" s="122">
         <v>4</v>
       </c>
-      <c r="B35" s="222" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="223"/>
+      <c r="B35" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="216"/>
       <c r="D35" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="222" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E35" s="215" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="216"/>
       <c r="G35" s="122">
         <v>30</v>
       </c>
       <c r="H35" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K35" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L35" s="204" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M35" s="205"/>
       <c r="N35" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O35" s="205"/>
       <c r="P35" s="206" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="207"/>
       <c r="R35" s="207"/>
@@ -43304,38 +43364,38 @@
       <c r="A36" s="76">
         <v>5</v>
       </c>
-      <c r="B36" s="222" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="223"/>
+      <c r="B36" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="216"/>
       <c r="D36" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E36" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="216"/>
       <c r="G36" s="122">
         <v>100</v>
       </c>
       <c r="H36" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K36" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L36" s="204" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M36" s="205"/>
       <c r="N36" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O36" s="205"/>
       <c r="P36" s="206"/>
@@ -43348,38 +43408,38 @@
       <c r="A37" s="122">
         <v>6</v>
       </c>
-      <c r="B37" s="222" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="223"/>
+      <c r="B37" s="215" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="216"/>
       <c r="D37" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E37" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="216"/>
       <c r="G37" s="122">
         <v>100</v>
       </c>
       <c r="H37" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="204" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M37" s="205"/>
       <c r="N37" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="205"/>
       <c r="P37" s="206"/>
@@ -43392,42 +43452,42 @@
       <c r="A38" s="76">
         <v>7</v>
       </c>
-      <c r="B38" s="222" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="223"/>
+      <c r="B38" s="215" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="216"/>
       <c r="D38" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E38" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="216"/>
       <c r="G38" s="122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" s="205"/>
       <c r="N38" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="205"/>
       <c r="P38" s="206" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q38" s="207"/>
       <c r="R38" s="207"/>
@@ -43438,96 +43498,149 @@
       <c r="A39" s="76">
         <v>8</v>
       </c>
-      <c r="B39" s="222" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="223"/>
+      <c r="B39" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="216"/>
       <c r="D39" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E39" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="216"/>
       <c r="G39" s="122">
         <v>100</v>
       </c>
       <c r="H39" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M39" s="205"/>
       <c r="N39" s="204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O39" s="205"/>
       <c r="P39" s="201" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q39" s="202"/>
-      <c r="R39" s="202"/>
-      <c r="S39" s="202"/>
-      <c r="T39" s="203"/>
+        <v>113</v>
+      </c>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="203"/>
+      <c r="S39" s="203"/>
+      <c r="T39" s="202"/>
     </row>
     <row r="40" spans="1:20" s="41" customFormat="1" ht="32.549999999999997" customHeight="1">
       <c r="A40" s="76">
         <v>9</v>
       </c>
-      <c r="B40" s="222" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="223"/>
+      <c r="B40" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="216"/>
       <c r="D40" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="223"/>
+        <v>88</v>
+      </c>
+      <c r="E40" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="216"/>
       <c r="G40" s="76">
         <v>200</v>
       </c>
       <c r="H40" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I40" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="199" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="200"/>
-      <c r="N40" s="199" t="s">
-        <v>91</v>
-      </c>
-      <c r="O40" s="200"/>
+        <v>90</v>
+      </c>
+      <c r="L40" s="224" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="225"/>
+      <c r="N40" s="224" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" s="225"/>
       <c r="P40" s="201" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q40" s="202"/>
-      <c r="R40" s="202"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="203"/>
+        <v>114</v>
+      </c>
+      <c r="Q40" s="203"/>
+      <c r="R40" s="203"/>
+      <c r="S40" s="203"/>
+      <c r="T40" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -43538,59 +43651,6 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="L40:M40"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
